--- a/public/templates/user-import-template.xlsx
+++ b/public/templates/user-import-template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>学号</t>
   </si>
@@ -47,6 +47,9 @@
     <t>年级</t>
   </si>
   <si>
+    <t>示例数据，导入时需删除</t>
+  </si>
+  <si>
     <t>123456</t>
   </si>
   <si>
@@ -59,7 +62,7 @@
     <t>计算机科学与技术</t>
   </si>
   <si>
-    <t>2024级</t>
+    <t>2024-硕</t>
   </si>
   <si>
     <t>李四</t>
@@ -69,6 +72,9 @@
   </si>
   <si>
     <t>软件工程</t>
+  </si>
+  <si>
+    <t>2024-博</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +98,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,140 +581,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1039,15 +1071,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="26.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
@@ -1076,49 +1108,59 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20254227001</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="A3" s="2">
+        <v>20254227001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>20254227002</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="zhangsan@stu.suda.edu.cn"/>
-    <hyperlink ref="D3" r:id="rId2" display="lisi@stu.suda.edu.cn"/>
+    <hyperlink ref="D3" r:id="rId1" display="zhangsan@stu.suda.edu.cn"/>
+    <hyperlink ref="D4" r:id="rId2" display="lisi@stu.suda.edu.cn"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
